--- a/exams/exam3/Exam3.xlsx
+++ b/exams/exam3/Exam3.xlsx
@@ -5,28 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yg/code/github/physiology-en-585-601/exams/exam3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yg/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB2567-1BC1-ED43-B6E5-60FBC54AB6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB39361A-659D-C34D-A429-29F56F1AD1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1660" yWindow="5780" windowWidth="28040" windowHeight="16500" firstSheet="2" activeTab="12" xr2:uid="{CA819EBF-2158-794F-B7B7-455BE00EE51D}"/>
+    <workbookView xWindow="3180" yWindow="3080" windowWidth="28360" windowHeight="16300" xr2:uid="{CA819EBF-2158-794F-B7B7-455BE00EE51D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alveolar Ventilation" sheetId="8" r:id="rId1"/>
-    <sheet name="Alveolar gas Equation" sheetId="1" r:id="rId2"/>
-    <sheet name="Compliance" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId4"/>
-    <sheet name="Dead Space" sheetId="13" r:id="rId5"/>
-    <sheet name="O2 saturation" sheetId="9" r:id="rId6"/>
-    <sheet name="Fick's law of Diffusion" sheetId="10" r:id="rId7"/>
-    <sheet name="PVR" sheetId="2" r:id="rId8"/>
-    <sheet name="Starling's law" sheetId="4" r:id="rId9"/>
-    <sheet name="Vascular Resistance" sheetId="7" r:id="rId10"/>
-    <sheet name="Fick Principle" sheetId="3" r:id="rId11"/>
-    <sheet name="Shunt" sheetId="5" r:id="rId12"/>
-    <sheet name="Bits" sheetId="15" r:id="rId13"/>
-    <sheet name="Notations" sheetId="11" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
+    <sheet name="Alveolar Ventilation" sheetId="8" r:id="rId2"/>
+    <sheet name="Alveolar gas Equation" sheetId="1" r:id="rId3"/>
+    <sheet name="Compliance" sheetId="12" r:id="rId4"/>
+    <sheet name="Surface Tension" sheetId="14" r:id="rId5"/>
+    <sheet name="Dead Space" sheetId="13" r:id="rId6"/>
+    <sheet name="O2 saturation" sheetId="9" r:id="rId7"/>
+    <sheet name="Fick's law of Diffusion" sheetId="10" r:id="rId8"/>
+    <sheet name="PVR" sheetId="2" r:id="rId9"/>
+    <sheet name="Starling's law" sheetId="4" r:id="rId10"/>
+    <sheet name="Vascular Resistance" sheetId="7" r:id="rId11"/>
+    <sheet name="Fick Principle" sheetId="3" r:id="rId12"/>
+    <sheet name="Shunt" sheetId="5" r:id="rId13"/>
+    <sheet name="Bits" sheetId="15" r:id="rId14"/>
+    <sheet name="Notations" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
   <si>
     <t>VT</t>
   </si>
@@ -254,9 +255,6 @@
     <t>Mixed venous blood con.</t>
   </si>
   <si>
-    <t>O2 con. Leaving pulmonary cappillaries</t>
-  </si>
-  <si>
     <t>PalvCO2 = R x (PiO2 - PalvO2)</t>
   </si>
   <si>
@@ -345,13 +343,121 @@
   </si>
   <si>
     <t>&gt;</t>
+  </si>
+  <si>
+    <t>PO2 mm Hg</t>
+  </si>
+  <si>
+    <t>dissolved O2 ml O2 100/ml</t>
+  </si>
+  <si>
+    <t>O2 con. Leaving pulmonary capillaries</t>
+  </si>
+  <si>
+    <t>PalvCO2 = R x (PIO2 - PalvO2)</t>
+  </si>
+  <si>
+    <t>PalvO2 - PaO2</t>
+  </si>
+  <si>
+    <t>PAO2 - PaO2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>P1/P2</t>
+  </si>
+  <si>
+    <t># Total questions</t>
+  </si>
+  <si>
+    <t>Total min</t>
+  </si>
+  <si>
+    <t>Time per Q</t>
+  </si>
+  <si>
+    <t>Arterial Pressure</t>
+  </si>
+  <si>
+    <t>CVP</t>
+  </si>
+  <si>
+    <t>diag</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>MAP=CO * SVR</t>
+  </si>
+  <si>
+    <t>R ~ 1/r^4</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>r^4</t>
+  </si>
+  <si>
+    <t>1/r^4</t>
+  </si>
+  <si>
+    <t>If first 16 questions in hour</t>
+  </si>
+  <si>
+    <t>6 remaining questions</t>
+  </si>
+  <si>
+    <t>O2 saturation</t>
+  </si>
+  <si>
+    <t>O2 concentration ml O2/100 ml blood</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Anatomic dead space</t>
+  </si>
+  <si>
+    <t>cubic inch to ml</t>
+  </si>
+  <si>
+    <t>foot to inch</t>
+  </si>
+  <si>
+    <t>l in feet</t>
+  </si>
+  <si>
+    <t>l in inches</t>
+  </si>
+  <si>
+    <t>r in inch</t>
+  </si>
+  <si>
+    <t>in mL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,6 +478,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="STIXMathJax_Main"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,13 +511,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,16 +732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -645,8 +764,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="2844800"/>
+          <a:off x="4737100" y="2806700"/>
           <a:ext cx="2984500" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA66FEE7-5A50-E54D-9DB5-3A4904A7443A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7861300" y="2261946"/>
+          <a:ext cx="4445000" cy="2173402"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1145,26 +1308,731 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A8FA8-46E7-C347-9951-2B8EC3289259}">
-  <dimension ref="B5:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328DEF4-1F93-7341-8E7B-69AA307F978A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E7C0AF-4255-3D4F-9C01-C34DC3E16E15}">
+  <dimension ref="B6:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" ht="51">
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1">
+        <f>(C8-C9) - (C6-C7)</f>
+        <v>17</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E189EB0-5317-7C4D-B9FC-625A76393019}">
+  <dimension ref="B9:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f>(F9-F10)/F11</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA5D5C-148E-4243-B29B-5D07D2064715}">
+  <dimension ref="B4:G9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1">
+        <v>300</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <f>F7/(G5-G6)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA05310E-8581-A047-A378-8190A3261148}">
+  <dimension ref="B25:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <f>(E25-E26)/(E25-E27)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13F38F9-A37F-E64F-93FE-1AA970A66DE5}">
+  <dimension ref="D5:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7">
+      <c r="D5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B55A6F-9EB6-EB4F-BB4D-6B5CD95C25E0}">
+  <dimension ref="B7:N42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:6">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="D10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="D11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="D12" s="4"/>
+      <c r="F12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="D16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16">
+        <f>F11/F10</f>
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="D17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17">
+        <f>F12/21</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="D18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18">
+        <f>F12/6</f>
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="I19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="I20" s="4"/>
+      <c r="M20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23">
+        <f>F22^4</f>
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <f>N22 * (N20-N19)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24">
+        <f>(B22-B23)/B22</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24">
+        <f>1/F23</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="N24">
+        <f>N19+N23</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="N25">
+        <f>N24/6</f>
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="D29">
+        <f>75/150</f>
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36">
+        <f>C35/2</f>
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <f>PI() * J35</f>
+        <v>113.09733552923255</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38">
+        <f>PI() * (C36^2) * C34</f>
+        <v>251.32741228718345</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38">
+        <f>G37*G35</f>
+        <v>36</v>
+      </c>
+      <c r="J38">
+        <f>J37*G34</f>
+        <v>1854.7963026794137</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40">
+        <f>PI() * (G39^2) * G38*G34</f>
+        <v>1854.7963026794137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="E41" t="s">
+        <v>136</v>
+      </c>
+      <c r="I41">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="I42">
+        <f>(J38 - I41)/I41</f>
+        <v>11.365308684529424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A8FA8-46E7-C347-9951-2B8EC3289259}">
+  <dimension ref="B5:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1">
-        <v>250</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>500</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1173,47 +2041,52 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="1">
         <f>C5*C6</f>
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="D7" s="1">
         <f>D5*D6</f>
-        <v>5000</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>8000</v>
+      </c>
+      <c r="E7" s="1">
+        <f>E5*E6</f>
+        <v>8000</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="1">
         <f>G5*C6</f>
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H7" s="1">
         <f>G5*D6</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1222,24 +2095,27 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1">
         <f>C7-G7</f>
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="D9" s="1">
         <f>D7-H7</f>
-        <v>2000</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>5600</v>
+      </c>
+      <c r="E9" s="1">
+        <f>E7-I7</f>
+        <v>8000</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1248,391 +2124,43 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
+    <row r="14" spans="2:8">
+      <c r="C14">
+        <f>350*16</f>
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E189EB0-5317-7C4D-B9FC-625A76393019}">
-  <dimension ref="B9:G13"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337706C7-FF86-9340-8F75-B5BC71912AAE}">
+  <dimension ref="C6:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <f>(F9-F10)/F11</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA5D5C-148E-4243-B29B-5D07D2064715}">
-  <dimension ref="B4:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1">
-        <v>300</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <f>F7/(G5-G6)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA05310E-8581-A047-A378-8190A3261148}">
-  <dimension ref="B25:E29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29">
-        <f>(E25-E26)/(E25-E27)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13F38F9-A37F-E64F-93FE-1AA970A66DE5}">
-  <dimension ref="D5:G13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B55A6F-9EB6-EB4F-BB4D-6B5CD95C25E0}">
-  <dimension ref="C7:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337706C7-FF86-9340-8F75-B5BC71912AAE}">
-  <dimension ref="C6:H68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +2169,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:9">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +2177,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1657,21 +2185,24 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:9">
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>247</v>
+        <v>585</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="1">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="I11" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1684,14 +2215,17 @@
       <c r="H12" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1">
         <f>D12 * D11</f>
-        <v>51.87</v>
+        <v>122.85</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>61</v>
@@ -1699,17 +2233,24 @@
       <c r="H13" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
       <c r="G14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="1">
         <f>H12*(H11-H13)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+        <v>112.97999999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I12*(I11-I13)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1717,16 +2258,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:9">
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="1">
         <f>(D11-D15) * D12</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+        <v>112.97999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1734,16 +2275,16 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:9">
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1">
         <f>(D11-D15) * D18</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+        <v>425.02000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1751,7 +2292,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:9">
       <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
@@ -1759,7 +2300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:9">
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1768,16 +2309,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9">
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1">
         <f>D16-D24</f>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+        <v>62.97999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
       <c r="C31" s="1" t="s">
         <v>65</v>
       </c>
@@ -1793,8 +2334,11 @@
       <c r="H31" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
       <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
@@ -1802,16 +2346,19 @@
         <v>66</v>
       </c>
       <c r="E32" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H32" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="I32" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
       <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,39 +2371,53 @@
       <c r="H33" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
       <c r="D34" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="1">
         <f xml:space="preserve"> E33 - E32/E31</f>
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H34" s="1">
         <f xml:space="preserve"> H33 - H32/H31</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="I34" s="1">
+        <f xml:space="preserve"> I33 - I32/I31</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
       <c r="C40" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E34+H32/H31</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
       <c r="D41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:9">
       <c r="D42" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:9">
       <c r="D43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1864,7 +2425,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:9">
       <c r="D44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1873,18 +2434,18 @@
         <v>0.28050490883590462</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:9">
       <c r="D45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="1">
         <f>28-21</f>
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:9">
       <c r="C47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>4</v>
@@ -1893,7 +2454,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:9">
       <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1901,7 +2462,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:5">
       <c r="D49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1909,16 +2470,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:5">
       <c r="D50" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50" s="1">
         <f>E48*(E47-E49)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:5">
       <c r="D51" s="1" t="s">
         <v>67</v>
       </c>
@@ -1926,7 +2487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:5">
       <c r="D52" s="1" t="s">
         <v>66</v>
       </c>
@@ -1935,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:5">
       <c r="C54" s="1" t="s">
         <v>65</v>
       </c>
@@ -1946,7 +2507,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:5">
       <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1954,7 +2515,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:5">
       <c r="D56" s="1" t="s">
         <v>61</v>
       </c>
@@ -1962,16 +2523,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:5">
       <c r="D57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57" s="1">
         <f>E55*(E54-E56)</f>
         <v>149.72999999999999</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:5">
       <c r="D58" s="1" t="s">
         <v>10</v>
       </c>
@@ -1979,7 +2540,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:5">
       <c r="D59" s="1" t="s">
         <v>66</v>
       </c>
@@ -1987,7 +2548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:5">
       <c r="D60" s="1" t="s">
         <v>67</v>
       </c>
@@ -1996,36 +2557,91 @@
         <v>89.72999999999999</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:5">
       <c r="D61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E61" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:5">
       <c r="D62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E62" s="1">
         <f>E60-E61</f>
         <v>40.72999999999999</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:5">
       <c r="D66" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
       <c r="D67" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="E67" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
       <c r="C68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="1">
+        <f>E66-E67</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="D69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="1">
+        <f>E66-E67</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5">
+      <c r="D72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5">
+      <c r="D73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="E74" s="1">
+        <f>E73*(E71-E72)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +2649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3483B7-DBCC-BF42-BAF7-E0254CBA033F}">
   <dimension ref="C9:H14"/>
   <sheetViews>
@@ -2041,11 +2657,11 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8">
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -2054,15 +2670,15 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8">
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>500</v>
@@ -2071,24 +2687,24 @@
         <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8">
       <c r="G11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11">
         <f>H10-H9</f>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8">
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <f>D10/D9</f>
@@ -2102,37 +2718,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8">
       <c r="F14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <f>H12/H11</f>
         <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA655FC-D097-3B42-BCC3-E580BEBE6290}">
-  <dimension ref="C6:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2142,6 +2734,89 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA655FC-D097-3B42-BCC3-E580BEBE6290}">
+  <dimension ref="B6:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="6" spans="2:4">
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <f>2*C11/C14</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <f>2*C12/C15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19">
+        <f>C17/C18</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD16D5EB-3E39-4C44-88EE-5C2F35643D46}">
   <dimension ref="D4:E10"/>
   <sheetViews>
@@ -2149,17 +2824,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:5">
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:5">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2842,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:5">
       <c r="D6" t="s">
         <v>2</v>
       </c>
@@ -2175,91 +2850,13 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:5">
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <f>(E5*E4) - E6</f>
         <v>1800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF8833F-2087-034A-9DA3-693D9AB3A625}">
-  <dimension ref="C10:D22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D20">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <f>D21  * D11 * D13/100 + D20 * D19</f>
-        <v>13.560000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2269,41 +2866,110 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1E2B46-EF54-FB49-B867-3986DFA70D02}">
-  <dimension ref="C24:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF8833F-2087-034A-9DA3-693D9AB3A625}">
+  <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="D20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22">
+        <f>D21  * D11 * D13/100 + D20 * D19</f>
+        <v>13.560000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="D26">
-        <f>D24/D25</f>
-        <v>60</v>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="D27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28">
+        <f>D27*D26</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2313,6 +2979,50 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1E2B46-EF54-FB49-B867-3986DFA70D02}">
+  <dimension ref="C24:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <f>D24/D25</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D897D9C3-21B7-B947-88EC-408506B8DFB6}">
   <dimension ref="B4:G16"/>
   <sheetViews>
@@ -2320,9 +3030,9 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2336,7 +3046,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2350,7 +3060,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2358,7 +3068,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -2370,7 +3080,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2378,7 +3088,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -2391,7 +3101,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2399,7 +3109,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2407,7 +3117,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -2423,7 +3133,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -2435,7 +3145,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2443,7 +3153,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2451,7 +3161,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2462,74 +3172,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E7C0AF-4255-3D4F-9C01-C34DC3E16E15}">
-  <dimension ref="B6:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1">
-        <f>(C8-C9) - (C6-C7)</f>
-        <v>17</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>